--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Plxna2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.07421510367285</v>
+        <v>43.99002066666667</v>
       </c>
       <c r="H2">
-        <v>5.07421510367285</v>
+        <v>131.970062</v>
       </c>
       <c r="I2">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837379</v>
       </c>
       <c r="J2">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.883764224106219</v>
+        <v>24.59985066666667</v>
       </c>
       <c r="N2">
-        <v>8.883764224106219</v>
+        <v>73.79955200000001</v>
       </c>
       <c r="O2">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549158</v>
       </c>
       <c r="P2">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549157</v>
       </c>
       <c r="Q2">
-        <v>45.07813060342829</v>
+        <v>1082.147939223581</v>
       </c>
       <c r="R2">
-        <v>45.07813060342829</v>
+        <v>9739.331453012226</v>
       </c>
       <c r="S2">
-        <v>0.02492198431361787</v>
+        <v>0.2021781810603099</v>
       </c>
       <c r="T2">
-        <v>0.02492198431361787</v>
+        <v>0.2021781810603099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.07421510367285</v>
+        <v>43.99002066666667</v>
       </c>
       <c r="H3">
-        <v>5.07421510367285</v>
+        <v>131.970062</v>
       </c>
       <c r="I3">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837379</v>
       </c>
       <c r="J3">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.36895414761942</v>
+        <v>2.577566</v>
       </c>
       <c r="N3">
-        <v>2.36895414761942</v>
+        <v>7.732698000000001</v>
       </c>
       <c r="O3">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="P3">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="Q3">
-        <v>12.0205829157589</v>
+        <v>113.3871816096974</v>
       </c>
       <c r="R3">
-        <v>12.0205829157589</v>
+        <v>1020.484634487276</v>
       </c>
       <c r="S3">
-        <v>0.006645723211164013</v>
+        <v>0.02118417759946153</v>
       </c>
       <c r="T3">
-        <v>0.006645723211164013</v>
+        <v>0.02118417759946153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.07421510367285</v>
+        <v>43.99002066666667</v>
       </c>
       <c r="H4">
-        <v>5.07421510367285</v>
+        <v>131.970062</v>
       </c>
       <c r="I4">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837379</v>
       </c>
       <c r="J4">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0828097060786222</v>
+        <v>0.4574283333333333</v>
       </c>
       <c r="N4">
-        <v>0.0828097060786222</v>
+        <v>1.372285</v>
       </c>
       <c r="O4">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="P4">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="Q4">
-        <v>0.4201942613148542</v>
+        <v>20.12228183685222</v>
       </c>
       <c r="R4">
-        <v>0.4201942613148542</v>
+        <v>181.10053653167</v>
       </c>
       <c r="S4">
-        <v>0.0002323094291839294</v>
+        <v>0.003759454870354055</v>
       </c>
       <c r="T4">
-        <v>0.0002323094291839294</v>
+        <v>0.003759454870354055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.07421510367285</v>
+        <v>43.99002066666667</v>
       </c>
       <c r="H5">
-        <v>5.07421510367285</v>
+        <v>131.970062</v>
       </c>
       <c r="I5">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837379</v>
       </c>
       <c r="J5">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837378</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.6932189501434</v>
+        <v>30.09598833333334</v>
       </c>
       <c r="N5">
-        <v>28.6932189501434</v>
+        <v>90.28796500000001</v>
       </c>
       <c r="O5">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="P5">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="Q5">
-        <v>145.5955649698097</v>
+        <v>1323.923148767093</v>
       </c>
       <c r="R5">
-        <v>145.5955649698097</v>
+        <v>11915.30833890383</v>
       </c>
       <c r="S5">
-        <v>0.0804942515968923</v>
+        <v>0.2473491510536124</v>
       </c>
       <c r="T5">
-        <v>0.0804942515968923</v>
+        <v>0.2473491510536124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.1125532786755</v>
+        <v>5.189622333333333</v>
       </c>
       <c r="H6">
-        <v>40.1125532786755</v>
+        <v>15.568867</v>
       </c>
       <c r="I6">
-        <v>0.8877057314491419</v>
+        <v>0.05597462963202916</v>
       </c>
       <c r="J6">
-        <v>0.8877057314491419</v>
+        <v>0.05597462963202914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.883764224106219</v>
+        <v>24.59985066666667</v>
       </c>
       <c r="N6">
-        <v>8.883764224106219</v>
+        <v>73.79955200000001</v>
       </c>
       <c r="O6">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549158</v>
       </c>
       <c r="P6">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549157</v>
       </c>
       <c r="Q6">
-        <v>356.350465754652</v>
+        <v>127.6639344163982</v>
       </c>
       <c r="R6">
-        <v>356.350465754652</v>
+        <v>1148.975409747584</v>
       </c>
       <c r="S6">
-        <v>0.1970126222805797</v>
+        <v>0.02385150967974755</v>
       </c>
       <c r="T6">
-        <v>0.1970126222805797</v>
+        <v>0.02385150967974754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.1125532786755</v>
+        <v>5.189622333333333</v>
       </c>
       <c r="H7">
-        <v>40.1125532786755</v>
+        <v>15.568867</v>
       </c>
       <c r="I7">
-        <v>0.8877057314491419</v>
+        <v>0.05597462963202916</v>
       </c>
       <c r="J7">
-        <v>0.8877057314491419</v>
+        <v>0.05597462963202914</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.36895414761942</v>
+        <v>2.577566</v>
       </c>
       <c r="N7">
-        <v>2.36895414761942</v>
+        <v>7.732698000000001</v>
       </c>
       <c r="O7">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="P7">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="Q7">
-        <v>95.02479946112328</v>
+        <v>13.37659407924067</v>
       </c>
       <c r="R7">
-        <v>95.02479946112328</v>
+        <v>120.389346713166</v>
       </c>
       <c r="S7">
-        <v>0.05253559830173371</v>
+        <v>0.002499155024647907</v>
       </c>
       <c r="T7">
-        <v>0.05253559830173371</v>
+        <v>0.002499155024647906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.1125532786755</v>
+        <v>5.189622333333333</v>
       </c>
       <c r="H8">
-        <v>40.1125532786755</v>
+        <v>15.568867</v>
       </c>
       <c r="I8">
-        <v>0.8877057314491419</v>
+        <v>0.05597462963202916</v>
       </c>
       <c r="J8">
-        <v>0.8877057314491419</v>
+        <v>0.05597462963202914</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0828097060786222</v>
+        <v>0.4574283333333333</v>
       </c>
       <c r="N8">
-        <v>0.0828097060786222</v>
+        <v>1.372285</v>
       </c>
       <c r="O8">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="P8">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="Q8">
-        <v>3.321708747070192</v>
+        <v>2.373880294566111</v>
       </c>
       <c r="R8">
-        <v>3.321708747070192</v>
+        <v>21.364922651095</v>
       </c>
       <c r="S8">
-        <v>0.001836446458198839</v>
+        <v>0.0004435131118529331</v>
       </c>
       <c r="T8">
-        <v>0.001836446458198839</v>
+        <v>0.000443513111852933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.189622333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.568867</v>
+      </c>
+      <c r="I9">
+        <v>0.05597462963202916</v>
+      </c>
+      <c r="J9">
+        <v>0.05597462963202914</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.09598833333334</v>
+      </c>
+      <c r="N9">
+        <v>90.28796500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.5213156747549692</v>
+      </c>
+      <c r="P9">
+        <v>0.5213156747549692</v>
+      </c>
+      <c r="Q9">
+        <v>156.1868131984061</v>
+      </c>
+      <c r="R9">
+        <v>1405.681318785655</v>
+      </c>
+      <c r="S9">
+        <v>0.02918045181578077</v>
+      </c>
+      <c r="T9">
+        <v>0.02918045181578077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.049585</v>
+      </c>
+      <c r="I10">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J10">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>24.59985066666667</v>
+      </c>
+      <c r="N10">
+        <v>73.79955200000001</v>
+      </c>
+      <c r="O10">
+        <v>0.4261128628549158</v>
+      </c>
+      <c r="P10">
+        <v>0.4261128628549157</v>
+      </c>
+      <c r="Q10">
+        <v>0.4065945317688889</v>
+      </c>
+      <c r="R10">
+        <v>3.65935078592</v>
+      </c>
+      <c r="S10">
+        <v>7.596423731221302E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.596423731221301E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.049585</v>
+      </c>
+      <c r="I11">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J11">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.577566</v>
+      </c>
+      <c r="N11">
+        <v>7.732698000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.04464799572729766</v>
+      </c>
+      <c r="P11">
+        <v>0.04464799572729766</v>
+      </c>
+      <c r="Q11">
+        <v>0.04260287003666667</v>
+      </c>
+      <c r="R11">
+        <v>0.3834258303300001</v>
+      </c>
+      <c r="S11">
+        <v>7.95951316798881E-06</v>
+      </c>
+      <c r="T11">
+        <v>7.95951316798881E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.049585</v>
+      </c>
+      <c r="I12">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J12">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4574283333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.372285</v>
+      </c>
+      <c r="O12">
+        <v>0.007923466662817385</v>
+      </c>
+      <c r="P12">
+        <v>0.007923466662817385</v>
+      </c>
+      <c r="Q12">
+        <v>0.007560527969444444</v>
+      </c>
+      <c r="R12">
+        <v>0.06804475172499999</v>
+      </c>
+      <c r="S12">
+        <v>1.41253680510134E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.41253680510134E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.049585</v>
+      </c>
+      <c r="I13">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J13">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.09598833333334</v>
+      </c>
+      <c r="N13">
+        <v>90.28796500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5213156747549692</v>
+      </c>
+      <c r="P13">
+        <v>0.5213156747549692</v>
+      </c>
+      <c r="Q13">
+        <v>0.4974365271694445</v>
+      </c>
+      <c r="R13">
+        <v>4.476928744525001</v>
+      </c>
+      <c r="S13">
+        <v>9.293628773920989E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.293628773920989E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H14">
+        <v>130.552978</v>
+      </c>
+      <c r="I14">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J14">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.59985066666667</v>
+      </c>
+      <c r="N14">
+        <v>73.79955200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4261128628549158</v>
+      </c>
+      <c r="P14">
+        <v>0.4261128628549157</v>
+      </c>
+      <c r="Q14">
+        <v>1070.527920962873</v>
+      </c>
+      <c r="R14">
+        <v>9634.751288665857</v>
+      </c>
+      <c r="S14">
+        <v>0.2000072078775461</v>
+      </c>
+      <c r="T14">
+        <v>0.2000072078775461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>40.1125532786755</v>
-      </c>
-      <c r="H9">
-        <v>40.1125532786755</v>
-      </c>
-      <c r="I9">
-        <v>0.8877057314491419</v>
-      </c>
-      <c r="J9">
-        <v>0.8877057314491419</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>28.6932189501434</v>
-      </c>
-      <c r="N9">
-        <v>28.6932189501434</v>
-      </c>
-      <c r="O9">
-        <v>0.716815316005522</v>
-      </c>
-      <c r="P9">
-        <v>0.716815316005522</v>
-      </c>
-      <c r="Q9">
-        <v>1150.958273874329</v>
-      </c>
-      <c r="R9">
-        <v>1150.958273874329</v>
-      </c>
-      <c r="S9">
-        <v>0.6363210644086297</v>
-      </c>
-      <c r="T9">
-        <v>0.6363210644086297</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H15">
+        <v>130.552978</v>
+      </c>
+      <c r="I15">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J15">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.577566</v>
+      </c>
+      <c r="N15">
+        <v>7.732698000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.04464799572729766</v>
+      </c>
+      <c r="P15">
+        <v>0.04464799572729766</v>
+      </c>
+      <c r="Q15">
+        <v>112.1696390971827</v>
+      </c>
+      <c r="R15">
+        <v>1009.526751874644</v>
+      </c>
+      <c r="S15">
+        <v>0.02095670359002024</v>
+      </c>
+      <c r="T15">
+        <v>0.02095670359002024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H16">
+        <v>130.552978</v>
+      </c>
+      <c r="I16">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J16">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4574283333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.372285</v>
+      </c>
+      <c r="O16">
+        <v>0.007923466662817385</v>
+      </c>
+      <c r="P16">
+        <v>0.007923466662817385</v>
+      </c>
+      <c r="Q16">
+        <v>19.90621037941445</v>
+      </c>
+      <c r="R16">
+        <v>179.15589341473</v>
+      </c>
+      <c r="S16">
+        <v>0.003719086143805296</v>
+      </c>
+      <c r="T16">
+        <v>0.003719086143805295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H17">
+        <v>130.552978</v>
+      </c>
+      <c r="I17">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J17">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.09598833333334</v>
+      </c>
+      <c r="N17">
+        <v>90.28796500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.5213156747549692</v>
+      </c>
+      <c r="P17">
+        <v>0.5213156747549692</v>
+      </c>
+      <c r="Q17">
+        <v>1309.706967589975</v>
+      </c>
+      <c r="R17">
+        <v>11787.36270830977</v>
+      </c>
+      <c r="S17">
+        <v>0.2446931355978368</v>
+      </c>
+      <c r="T17">
+        <v>0.2446931355978368</v>
       </c>
     </row>
   </sheetData>
